--- a/va_facility_data_2025-02-20/Rome VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rome%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Rome VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Rome%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R573f8afbb4d943169af7d1052ec366da"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R940240e610a44d94a7f0ca6e56252886"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R94f352d861764baa9aef7dd746b3f74f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R57014b01ac7f4722bf458a75a82336c9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1be47dd410a44a6ba009fe85d4fd39a5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6e4b72cb3cb041f68888811e9716f313"/>
   </x:sheets>
 </x:workbook>
 </file>
